--- a/v3_0703/GP/Ea_gp_performance.xlsx
+++ b/v3_0703/GP/Ea_gp_performance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A88B5-BBA3-4323-AB03-66D0FA7D0DC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2715" windowWidth="23730" windowHeight="11385"/>
+    <workbookView xWindow="12045" yWindow="3615" windowWidth="23730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,15 +55,6 @@
     <t>pearson r</t>
   </si>
   <si>
-    <t>div(mul(X1, X1), div(X0, 0.553))</t>
-  </si>
-  <si>
-    <t>Ea = 0.553*Ebind^2/Ec</t>
-  </si>
-  <si>
-    <t>mul(sub(X1, sqrt(X1)), div(X1, X0))</t>
-  </si>
-  <si>
     <t>div(mul(X1, X1), div(X0, 0.575))</t>
   </si>
   <si>
@@ -81,13 +73,22 @@
     <t>Ea = 0.570*Ebind^2/Ec</t>
   </si>
   <si>
-    <t>Ea = Ebind^2/Ec - Ebind^1.5/Ec</t>
+    <t>mul(mul(0.566, X1), div(X1, X0))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ea = 0.566*Ebind^2/Ec </t>
+  </si>
+  <si>
+    <t>div(mul(X1, X1), div(X0, 0.578))</t>
+  </si>
+  <si>
+    <t>Ea = 0.578*Ebind^2/Ec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -433,11 +434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,22 +496,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>0.24562609444241901</v>
+        <v>0.21289623571744301</v>
       </c>
       <c r="C4" s="2">
-        <v>0.29247017528039898</v>
+        <v>0.26465289757757998</v>
       </c>
       <c r="D4" s="2">
-        <v>0.92535315589959199</v>
+        <v>0.93221119342370196</v>
       </c>
       <c r="E4" s="2">
-        <v>0.97026915309521899</v>
+        <v>0.97255418721702702</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -519,22 +520,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>0.20536378156219101</v>
+        <v>0.21048755519464801</v>
       </c>
       <c r="C5" s="2">
-        <v>0.281865435645832</v>
+        <v>0.262219093269699</v>
       </c>
       <c r="D5" s="2">
-        <v>0.94012573581764602</v>
+        <v>0.93175104281019905</v>
       </c>
       <c r="E5" s="2">
-        <v>0.97450749804470804</v>
+        <v>0.97255418721702702</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -543,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>0.24216363207226699</v>
+        <v>0.21019389367630401</v>
       </c>
       <c r="C6" s="2">
-        <v>0.281280969855909</v>
+        <v>0.26217230538286002</v>
       </c>
       <c r="D6" s="2">
-        <v>0.92749789192948695</v>
+        <v>0.93156892510470701</v>
       </c>
       <c r="E6" s="2">
-        <v>0.970269153095218</v>
+        <v>0.97255418721702702</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -567,22 +568,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>0.239229456859686</v>
+        <v>0.21218466879206799</v>
       </c>
       <c r="C7" s="2">
-        <v>0.274294423665006</v>
+        <v>0.26355601910267401</v>
       </c>
       <c r="D7" s="2">
-        <v>0.92793582340777603</v>
+        <v>0.93226702147209795</v>
       </c>
       <c r="E7" s="2">
-        <v>0.97026915309521899</v>
+        <v>0.97255418721702702</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -591,22 +592,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>0.24063047558300699</v>
+        <v>0.211234107557978</v>
       </c>
       <c r="C8" s="3">
-        <v>0.277330878192594</v>
+        <v>0.26258370850456397</v>
       </c>
       <c r="D8" s="3">
-        <v>0.927884601973892</v>
+        <v>0.93209070863723498</v>
       </c>
       <c r="E8" s="3">
-        <v>0.97026915309521899</v>
+        <v>0.97255418721702702</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1"/>
     </row>

--- a/v3_0703/GP/Ea_gp_performance.xlsx
+++ b/v3_0703/GP/Ea_gp_performance.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A88B5-BBA3-4323-AB03-66D0FA7D0DC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31973347-C96A-364F-BEF8-7E73AD82AD40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="3615" windowWidth="23730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="2880" windowWidth="23740" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,17 +92,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,8 +146,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,20 +431,20 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="46.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -459,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -467,7 +460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +484,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -515,7 +508,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -539,7 +532,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -563,7 +556,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -587,26 +580,26 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>0.211234107557978</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0.26258370850456397</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.93209070863723498</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>0.97255418721702702</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1"/>

--- a/v3_0703/GP/Ea_gp_performance.xlsx
+++ b/v3_0703/GP/Ea_gp_performance.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31973347-C96A-364F-BEF8-7E73AD82AD40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C978294E-67D2-42D7-90B7-37FAA4E4A5C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="2880" windowWidth="23740" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1272" yWindow="1320" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,16 +73,18 @@
     <t>Ea = 0.570*Ebind^2/Ec</t>
   </si>
   <si>
-    <t>mul(mul(0.566, X1), div(X1, X0))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ea = 0.566*Ebind^2/Ec </t>
-  </si>
-  <si>
     <t>div(mul(X1, X1), div(X0, 0.578))</t>
   </si>
   <si>
     <t>Ea = 0.578*Ebind^2/Ec</t>
+  </si>
+  <si>
+    <t>mul(mul(0.568, X1), div(X1, X0))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ea = 0.568*Ebind^2/Ec </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -90,14 +92,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,9 +154,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,20 +440,20 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="46.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -452,7 +461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -460,7 +469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +493,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -501,22 +510,22 @@
         <v>0.97255418721702702</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>0.21048755519464801</v>
+        <v>0.210942657779498</v>
       </c>
       <c r="C5" s="2">
-        <v>0.262219093269699</v>
+        <v>0.26239945152590599</v>
       </c>
       <c r="D5" s="2">
         <v>0.93175104281019905</v>
@@ -525,14 +534,14 @@
         <v>0.97255418721702702</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -556,7 +565,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -580,7 +589,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -605,6 +614,7 @@
       <c r="H8" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
